--- a/docs/reports/issues/vu_k21_issues.xlsx
+++ b/docs/reports/issues/vu_k21_issues.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aandacht voor onderwerpen" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Reputatie van partijen" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Relatie" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t xml:space="preserve">Onderwerp</t>
   </si>
@@ -101,6 +103,84 @@
   </si>
   <si>
     <t xml:space="preserve">terreurbestrijding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PvdD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PvdA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FvD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terrorismebestrijding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coronabeleid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overheidsuitgaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infrastructuur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asielzoekers en integratie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immigratie en integratie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belasting heffing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ontwikkeling criminaliteit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onderwijsen wetenschap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woning</t>
   </si>
 </sst>
 </file>
@@ -179,13 +259,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -207,7 +291,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -665,4 +749,1724 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>74.9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>